--- a/Data/SMcalculation.xlsx
+++ b/Data/SMcalculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="1020" windowWidth="27320" windowHeight="13160" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="1020" windowWidth="27320" windowHeight="13160" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Fine Sand" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="Silt Loam" sheetId="7" r:id="rId3"/>
     <sheet name="Silt clay Loam" sheetId="8" r:id="rId4"/>
     <sheet name="Saturation Curves" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet7" sheetId="9" r:id="rId6"/>
+    <sheet name="Soil Water Retention Curves" sheetId="9" r:id="rId6"/>
+    <sheet name="Summary table" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
   <si>
     <t>b</t>
   </si>
@@ -198,12 +199,67 @@
   <si>
     <t>Suction Head</t>
   </si>
+  <si>
+    <t xml:space="preserve">Soil type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil parameters </t>
+  </si>
+  <si>
+    <t>Coarse Sand</t>
+  </si>
+  <si>
+    <t>Sillt Clay Loam</t>
+  </si>
+  <si>
+    <t>θwp (cm3/cm3)</t>
+  </si>
+  <si>
+    <t>θ fc (cm3/cm3)</t>
+  </si>
+  <si>
+    <t>θa (%)</t>
+  </si>
+  <si>
+    <r>
+      <t>ψ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>a (cm)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">References </t>
+  </si>
+  <si>
+    <t>(Tarboton, 2003)</t>
+  </si>
+  <si>
+    <t>(Brooks &amp; Corey, 1966)</t>
+  </si>
+  <si>
+    <t>(Clapp &amp; Hornerber, 1978)</t>
+  </si>
+  <si>
+    <t>(Dingman, 2002)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +334,30 @@
       <b/>
       <sz val="14"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
     </font>
   </fonts>
   <fills count="11">
@@ -383,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -435,47 +515,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -486,12 +530,87 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -506,10 +625,13 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -873,11 +995,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-176236752"/>
-        <c:axId val="-176240768"/>
+        <c:axId val="1130698096"/>
+        <c:axId val="1130701216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-176236752"/>
+        <c:axId val="1130698096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,12 +1141,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-176240768"/>
+        <c:crossAx val="1130701216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-176240768"/>
+        <c:axId val="1130701216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1130,7 +1252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-176236752"/>
+        <c:crossAx val="1130698096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1229,7 +1351,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet7!$B$3:$B$45</c:f>
+              <c:f>'Soil Water Retention Curves'!$B$3:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
@@ -1367,7 +1489,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet7!$F$3:$F$45</c:f>
+              <c:f>'Soil Water Retention Curves'!$F$3:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
@@ -1525,7 +1647,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet7!$B$3:$B$45</c:f>
+              <c:f>'Soil Water Retention Curves'!$B$3:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
@@ -1663,7 +1785,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet7!$E$3:$E$45</c:f>
+              <c:f>'Soil Water Retention Curves'!$E$3:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
@@ -1821,7 +1943,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet7!$B$3:$B$45</c:f>
+              <c:f>'Soil Water Retention Curves'!$B$3:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
@@ -1959,7 +2081,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet7!$D$3:$D$45</c:f>
+              <c:f>'Soil Water Retention Curves'!$D$3:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
@@ -2117,7 +2239,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet7!$B$3:$B$45</c:f>
+              <c:f>'Soil Water Retention Curves'!$B$3:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
@@ -2255,7 +2377,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet7!$C$3:$C$45</c:f>
+              <c:f>'Soil Water Retention Curves'!$C$3:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
@@ -2401,11 +2523,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-105264800"/>
-        <c:axId val="-149900416"/>
+        <c:axId val="1129819856"/>
+        <c:axId val="1129824400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-105264800"/>
+        <c:axId val="1129819856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,12 +2646,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-149900416"/>
+        <c:crossAx val="1129824400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-149900416"/>
+        <c:axId val="1129824400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2648,7 +2770,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-105264800"/>
+        <c:crossAx val="1129819856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3138,11 +3260,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-148142032"/>
-        <c:axId val="-147868960"/>
+        <c:axId val="1129462464"/>
+        <c:axId val="1129465856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-148142032"/>
+        <c:axId val="1129462464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3276,12 +3398,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-147868960"/>
+        <c:crossAx val="1129465856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-147868960"/>
+        <c:axId val="1129465856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3423,7 +3545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-148142032"/>
+        <c:crossAx val="1129462464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3808,11 +3930,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-222189856"/>
-        <c:axId val="-222185808"/>
+        <c:axId val="1064706944"/>
+        <c:axId val="1129406048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-222189856"/>
+        <c:axId val="1064706944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3954,12 +4076,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-222185808"/>
+        <c:crossAx val="1129406048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-222185808"/>
+        <c:axId val="1129406048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4065,7 +4187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-222189856"/>
+        <c:crossAx val="1064706944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4517,11 +4639,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-222159264"/>
-        <c:axId val="-222155504"/>
+        <c:axId val="1064334480"/>
+        <c:axId val="1064343104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-222159264"/>
+        <c:axId val="1064334480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -4655,12 +4777,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-222155504"/>
+        <c:crossAx val="1064343104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-222155504"/>
+        <c:axId val="1064343104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4802,7 +4924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-222159264"/>
+        <c:crossAx val="1064334480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5187,11 +5309,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-146988640"/>
-        <c:axId val="-147677104"/>
+        <c:axId val="1109826448"/>
+        <c:axId val="1110392112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-146988640"/>
+        <c:axId val="1109826448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5333,12 +5455,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-147677104"/>
+        <c:crossAx val="1110392112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-147677104"/>
+        <c:axId val="1110392112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5444,7 +5566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-146988640"/>
+        <c:crossAx val="1109826448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5547,7 +5669,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5896,11 +6017,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-145624992"/>
-        <c:axId val="-145640816"/>
+        <c:axId val="1130903888"/>
+        <c:axId val="1130907008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-145624992"/>
+        <c:axId val="1130903888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -6034,12 +6155,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-145640816"/>
+        <c:crossAx val="1130907008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-145640816"/>
+        <c:axId val="1130907008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6181,7 +6302,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-145624992"/>
+        <c:crossAx val="1130903888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6566,11 +6687,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-146393872"/>
-        <c:axId val="-144224160"/>
+        <c:axId val="1039959696"/>
+        <c:axId val="1064365056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-146393872"/>
+        <c:axId val="1039959696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6712,12 +6833,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-144224160"/>
+        <c:crossAx val="1064365056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-144224160"/>
+        <c:axId val="1064365056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6823,7 +6944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-146393872"/>
+        <c:crossAx val="1039959696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6926,7 +7047,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7275,11 +7395,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-144111760"/>
-        <c:axId val="-144108368"/>
+        <c:axId val="1110420560"/>
+        <c:axId val="1110423952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-144111760"/>
+        <c:axId val="1110420560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -7413,12 +7533,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-144108368"/>
+        <c:crossAx val="1110423952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-144108368"/>
+        <c:axId val="1110423952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7560,7 +7680,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-144111760"/>
+        <c:crossAx val="1110420560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7633,7 +7753,7 @@
           <c:x val="0.113172891326327"/>
           <c:y val="0.0395738203957382"/>
           <c:w val="0.807751156591807"/>
-          <c:h val="0.880238257888997"/>
+          <c:h val="0.813267177219286"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -8831,17 +8951,117 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-150988352"/>
-        <c:axId val="-150988880"/>
+        <c:axId val="1064616768"/>
+        <c:axId val="1129487648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-150988352"/>
+        <c:axId val="1064616768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="mr-IN" sz="1200" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Times" charset="0"/>
+                    <a:ea typeface="Times" charset="0"/>
+                    <a:cs typeface="Times" charset="0"/>
+                  </a:rPr>
+                  <a:t>𝜃/n</a:t>
+                </a:r>
+                <a:endParaRPr lang="mr-IN" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Times" charset="0"/>
+                  <a:ea typeface="Times" charset="0"/>
+                  <a:cs typeface="Times" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8872,12 +9092,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-150988880"/>
+        <c:crossAx val="1129487648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-150988880"/>
+        <c:axId val="1129487648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8935,7 +9155,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8995,7 +9214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-150988352"/>
+        <c:crossAx val="1064616768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14652,8 +14871,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="216405" cy="187872"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -14729,7 +14948,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -14800,8 +15019,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="313585" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -14877,7 +15096,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -14948,8 +15167,8 @@
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1609725" cy="458139"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -15154,7 +15373,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -15333,8 +15552,8 @@
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1468671" cy="567720"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -15594,7 +15813,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -15816,8 +16035,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1714501" cy="409599"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -15959,7 +16178,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -16125,8 +16344,8 @@
       <xdr:rowOff>271689</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="230640" cy="187872"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -16202,7 +16421,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -17688,8 +17907,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="216405" cy="187872"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -17765,7 +17984,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -17836,8 +18055,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="313585" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -17913,7 +18132,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -17984,8 +18203,8 @@
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1609725" cy="458139"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -18190,7 +18409,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -18369,8 +18588,8 @@
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1468671" cy="567720"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -18630,7 +18849,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -18852,8 +19071,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1714501" cy="409599"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -18995,7 +19214,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -19161,8 +19380,8 @@
       <xdr:rowOff>271689</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="230640" cy="187872"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -19238,7 +19457,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -19314,8 +19533,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="216405" cy="187872"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -19391,7 +19610,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -19462,8 +19681,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="313585" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -19539,7 +19758,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -19610,8 +19829,8 @@
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1609725" cy="458139"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -19816,7 +20035,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -19995,8 +20214,8 @@
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1468671" cy="567720"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -20256,7 +20475,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -20478,8 +20697,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1714501" cy="409599"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -20621,7 +20840,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -20787,8 +21006,8 @@
       <xdr:rowOff>271689</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="230640" cy="187872"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -20864,7 +21083,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -21265,8 +21484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V134"/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:F53"/>
+    <sheetView topLeftCell="B1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54:G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21283,10 +21502,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="48"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="24"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -21300,31 +21519,31 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="22"/>
       <c r="E2" s="12"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="36" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
     </row>
     <row r="3" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -21334,26 +21553,26 @@
         <v>41</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="25" t="s">
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
     </row>
     <row r="4" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
@@ -21365,22 +21584,22 @@
       <c r="D4" s="23"/>
       <c r="E4" s="12"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
     </row>
     <row r="5" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
@@ -21392,24 +21611,24 @@
       <c r="D5" s="23"/>
       <c r="E5" s="12"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="25" t="s">
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
     </row>
     <row r="6" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
@@ -21417,83 +21636,83 @@
       <c r="D6" s="23"/>
       <c r="E6" s="12"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31" t="s">
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
     </row>
     <row r="7" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="29">
         <f>F14*100</f>
         <v>25.110985277278957</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="12"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="37" t="s">
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="47" t="s">
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
     </row>
     <row r="8" spans="2:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="31">
         <f>F49*100</f>
         <v>8.7233374157424119</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="12"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39" t="s">
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
     </row>
     <row r="9" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="33">
         <f>(C7-C8)</f>
         <v>16.387647861536543</v>
       </c>
@@ -21513,13 +21732,13 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="13"/>
@@ -21616,7 +21835,7 @@
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2"/>
@@ -22393,7 +22612,7 @@
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E49" s="20">
@@ -22461,132 +22680,196 @@
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E54" s="12"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E55" s="12"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E56" s="12"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E57" s="12"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E58" s="12"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E59" s="12"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E60" s="12"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E61" s="12"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E62" s="12"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E63" s="12"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E64" s="12"/>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E65" s="12"/>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E66" s="12"/>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E67" s="12"/>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E68" s="12"/>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E69" s="12"/>
-    </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E70" s="12"/>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E71" s="12"/>
-    </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E72" s="12"/>
-    </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E73" s="12"/>
-    </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E74" s="12"/>
-    </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E75" s="12"/>
-    </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E76" s="12"/>
-    </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E77" s="12"/>
-    </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E78" s="12"/>
-    </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E79" s="12"/>
-    </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E80" s="12"/>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E81" s="12"/>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E82" s="12"/>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E83" s="12"/>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E84" s="12"/>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E85" s="12"/>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E64" s="25"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E65" s="25"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E66" s="25"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E67" s="25"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E68" s="25"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E69" s="25"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E70" s="25"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E71" s="25"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E72" s="25"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E73" s="25"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E74" s="25"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E75" s="25"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E76" s="25"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E77" s="25"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E78" s="25"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E79" s="25"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E80" s="25"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E81" s="25"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E82" s="25"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E83" s="25"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E84" s="25"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E85" s="25"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E86" s="12"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E87" s="12"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E88" s="12"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E89" s="12"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E90" s="12"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E91" s="12"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E92" s="12"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E93" s="12"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E94" s="12"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E95" s="12"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E96" s="12"/>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.2">
@@ -22705,7 +22988,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J6:N6"/>
     <mergeCell ref="G7:I8"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="O7:S7"/>
@@ -22720,6 +23002,7 @@
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="O5:V6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22730,8 +23013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V134"/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F53"/>
+    <sheetView topLeftCell="B43" zoomScale="112" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22748,10 +23031,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="32"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="24"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -22765,31 +23048,31 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="22"/>
       <c r="E2" s="3"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="36" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
     </row>
     <row r="3" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -22799,26 +23082,26 @@
         <v>12.41</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="25" t="s">
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
     </row>
     <row r="4" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
@@ -22830,22 +23113,22 @@
       <c r="D4" s="23"/>
       <c r="E4" s="3"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
     </row>
     <row r="5" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
@@ -22857,24 +23140,24 @@
       <c r="D5" s="23"/>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="25" t="s">
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
     </row>
     <row r="6" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
@@ -22882,83 +23165,83 @@
       <c r="D6" s="23"/>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31" t="s">
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
     </row>
     <row r="7" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="29">
         <f>F14*100</f>
         <v>17.76220327233445</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="37" t="s">
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="47" t="s">
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
     </row>
     <row r="8" spans="2:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="31">
         <f>F49*100</f>
         <v>6.76079969893956</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39" t="s">
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
     </row>
     <row r="9" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="33">
         <f>(C7-C8)</f>
         <v>11.001403573394889</v>
       </c>
@@ -22978,13 +23261,13 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="13"/>
@@ -23081,7 +23364,7 @@
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2"/>
@@ -23858,7 +24141,7 @@
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E49" s="20">
@@ -24195,8 +24478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V134"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="112" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F53"/>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24213,10 +24496,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1" s="63"/>
       <c r="D1" s="24"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -24230,31 +24513,31 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="22"/>
       <c r="E2" s="12"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="36" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
     </row>
     <row r="3" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -24264,26 +24547,26 @@
         <v>78.599999999999994</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="25" t="s">
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
     </row>
     <row r="4" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
@@ -24295,22 +24578,22 @@
       <c r="D4" s="23"/>
       <c r="E4" s="12"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
     </row>
     <row r="5" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
@@ -24322,24 +24605,24 @@
       <c r="D5" s="23"/>
       <c r="E5" s="12"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="25" t="s">
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
     </row>
     <row r="6" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
@@ -24347,83 +24630,83 @@
       <c r="D6" s="23"/>
       <c r="E6" s="12"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31" t="s">
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
     </row>
     <row r="7" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="29">
         <f>F14*100</f>
         <v>37.669275313275179</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="12"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="37" t="s">
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="47" t="s">
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
     </row>
     <row r="8" spans="2:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="31">
         <f>F49*100</f>
         <v>18.006399735305482</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="12"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39" t="s">
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
     </row>
     <row r="9" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="33">
         <f>(C7-C8)</f>
         <v>19.662875577969697</v>
       </c>
@@ -24443,13 +24726,13 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="13"/>
@@ -24546,7 +24829,7 @@
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2"/>
@@ -25323,7 +25606,7 @@
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E49" s="20">
@@ -25635,7 +25918,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J6:N6"/>
     <mergeCell ref="G7:I8"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="O7:S7"/>
@@ -25650,6 +25932,7 @@
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="O5:V6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25660,8 +25943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V134"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="112" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F53"/>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25678,10 +25961,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="52"/>
+      <c r="C1" s="65"/>
       <c r="D1" s="24"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -25695,31 +25978,31 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="22"/>
       <c r="E2" s="12"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="36" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
     </row>
     <row r="3" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -25729,26 +26012,26 @@
         <v>35.6</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="25" t="s">
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
     </row>
     <row r="4" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
@@ -25760,22 +26043,22 @@
       <c r="D4" s="23"/>
       <c r="E4" s="12"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
     </row>
     <row r="5" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
@@ -25787,24 +26070,24 @@
       <c r="D5" s="23"/>
       <c r="E5" s="12"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="25" t="s">
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
     </row>
     <row r="6" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
@@ -25812,83 +26095,83 @@
       <c r="D6" s="23"/>
       <c r="E6" s="12"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31" t="s">
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
     </row>
     <row r="7" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="29">
         <f>F14*100</f>
         <v>36.230716818124641</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="12"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="37" t="s">
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="47" t="s">
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
     </row>
     <row r="8" spans="2:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="31">
         <f>F49*100</f>
         <v>21.870312595413072</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="12"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39" t="s">
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
     </row>
     <row r="9" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="33">
         <f>(C7-C8)</f>
         <v>14.360404222711569</v>
       </c>
@@ -25908,13 +26191,13 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="13"/>
@@ -26011,7 +26294,7 @@
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2"/>
@@ -26788,7 +27071,7 @@
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E49" s="20">
@@ -27100,7 +27383,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J6:N6"/>
     <mergeCell ref="G7:I8"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="O7:S7"/>
@@ -27115,6 +27397,7 @@
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="O5:V6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27125,764 +27408,764 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="54"/>
-    <col min="3" max="3" width="13.33203125" style="54" customWidth="1"/>
-    <col min="4" max="4" width="15" style="54" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="54" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="54" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="35"/>
+    <col min="3" max="3" width="13.33203125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="15" style="35" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="36" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="54">
+      <c r="B3" s="35">
         <v>10</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="35">
         <v>1.4642568303684291</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="35">
         <v>1.0547596958097478</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="35">
         <v>1.475528662510815</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="35">
         <v>1.1780258987037828</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="54">
+      <c r="B4" s="35">
         <v>100</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="35">
         <v>0.78586326509375304</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="35">
         <v>0.59736523744828407</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="35">
         <v>0.95558297787907809</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="35">
         <v>0.87523077579796704</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="54">
+      <c r="B5" s="35">
         <v>200</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="35">
         <v>0.65160968399213226</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="35">
         <v>0.50339807684243076</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="35">
         <v>0.83843672424108495</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="35">
         <v>0.80035009402595325</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="54">
+      <c r="B6" s="35">
         <v>300</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="35">
         <v>0.58397640179718502</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="35">
         <v>0.4554411095470372</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="35">
         <v>0.77668608893350888</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="35">
         <v>0.75955381170072633</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="54">
+      <c r="B7" s="35">
         <v>400</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="35">
         <v>0.54029142108032291</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="35">
         <v>0.4242122036614096</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="35">
         <v>0.73565159366524147</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="35">
         <v>0.73187585574026404</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="54">
+      <c r="B8" s="35">
         <v>500</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="35">
         <v>0.50867006027703821</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="35">
         <v>0.40147153619118053</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="35">
         <v>0.70532174290879235</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="35">
         <v>0.71110364113071167</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="54">
+      <c r="B9" s="35">
         <v>600</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="35">
         <v>0.48421232488647981</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="35">
         <v>0.38379899647376092</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="35">
         <v>0.68147105509809092</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="35">
         <v>0.69456991392721956</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="54">
+      <c r="B10" s="35">
         <v>700</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="35">
         <v>0.46445336382403757</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="35">
         <v>0.36946539137501572</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="35">
         <v>0.66193591357457182</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="35">
         <v>0.68089112271535179</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="54">
+      <c r="B11" s="35">
         <v>800</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="35">
         <v>0.44799030288279074</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="35">
         <v>0.35748248158603413</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="35">
         <v>0.64546703599137334</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="35">
         <v>0.66925995537919469</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="54">
+      <c r="B12" s="35">
         <v>900</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="35">
         <v>0.43395391158193758</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="35">
         <v>0.34723581363971479</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="35">
         <v>0.63128089837025758</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="35">
         <v>0.65916556961003792</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="54">
+      <c r="B13" s="35">
         <v>1000</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="35">
         <v>0.42177100261053346</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="35">
         <v>0.33831898235141783</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="35">
         <v>0.61885536405535857</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="35">
         <v>0.6502649150131552</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="54">
+      <c r="B14" s="35">
         <v>1500</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="35">
         <v>0.37799363413061937</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="35">
         <v>0.30608852077753246</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="35">
         <v>0.57327683583844413</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="35">
         <v>0.61711893145285812</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="54">
+      <c r="B15" s="35">
         <v>2000</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="35">
         <v>0.34971741514766874</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="35">
         <v>0.28510049530583242</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="35">
         <v>0.54298901950852674</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="35">
         <v>0.59463126784825537</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="54">
+      <c r="B16" s="35">
         <v>2500</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="35">
         <v>0.32924968212043554</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="35">
         <v>0.26981716421967072</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="35">
         <v>0.52060236791163195</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="35">
         <v>0.57775435052352597</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="54">
+      <c r="B17" s="35">
         <v>3000</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="35">
         <v>0.31341878851851734</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="35">
         <v>0.25793997213688524</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="35">
         <v>0.50299802680715244</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="35">
         <v>0.56432110075560493</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="54">
+      <c r="B18" s="35">
         <v>3500</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="35">
         <v>0.30062929655334059</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="35">
         <v>0.24830677941423512</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="35">
         <v>0.4885790172744377</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="35">
         <v>0.55320741679247254</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="54">
+      <c r="B19" s="35">
         <v>4000</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="35">
         <v>0.28997316008113944</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="35">
         <v>0.24025341959441601</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="35">
         <v>0.476423236238536</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="35">
         <v>0.5437573772462726</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="54">
+      <c r="B20" s="35">
         <v>4500</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="35">
         <v>0.28088774748302636</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="35">
         <v>0.23336693664669347</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="35">
         <v>0.46595235977495841</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20" s="35">
         <v>0.5355559352107353</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="54">
+      <c r="B21" s="35">
         <v>5000</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="35">
         <v>0.27300204863935484</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21" s="35">
         <v>0.22737419764741396</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="35">
         <v>0.45678099556856644</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="35">
         <v>0.52832437061393556</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="54">
+      <c r="B22" s="35">
         <v>5500</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="35">
         <v>0.26605945298633249</v>
       </c>
-      <c r="D22" s="54">
+      <c r="D22" s="35">
         <v>0.22208578593021228</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="35">
         <v>0.44864009730132642</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="35">
         <v>0.52186678055430635</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="54">
+      <c r="B23" s="35">
         <v>6000</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C23" s="35">
         <v>0.25987563844122918</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D23" s="35">
         <v>0.21736531986553612</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="35">
         <v>0.44133479525970104</v>
       </c>
-      <c r="F23" s="54">
+      <c r="F23" s="35">
         <v>0.51604040733004919</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="54">
+      <c r="B24" s="35">
         <v>6500</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="35">
         <v>0.25431408002341238</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="35">
         <v>0.21311156505806889</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="35">
         <v>0.43471965961135145</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="35">
         <v>0.51073812325172652</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="54">
+      <c r="B25" s="35">
         <v>7000</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="35">
         <v>0.2492710495922332</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="35">
         <v>0.20924745430116368</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="35">
         <v>0.42868343227054129</v>
       </c>
-      <c r="F25" s="54">
+      <c r="F25" s="35">
         <v>0.50587755856966576</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="54">
+      <c r="B26" s="35">
         <v>7500</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="35">
         <v>0.24466602931824369</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D26" s="35">
         <v>0.20571305617307639</v>
       </c>
-      <c r="E26" s="54">
+      <c r="E26" s="35">
         <v>0.42313920024010282</v>
       </c>
-      <c r="F26" s="54">
+      <c r="F26" s="35">
         <v>0.50139406805790809</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="54">
+      <c r="B27" s="35">
         <v>8000</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="35">
         <v>0.24043536273976324</v>
       </c>
-      <c r="D27" s="54">
+      <c r="D27" s="35">
         <v>0.20246090966938296</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="35">
         <v>0.41801784543165232</v>
       </c>
-      <c r="F27" s="54">
+      <c r="F27" s="35">
         <v>0.49723602053364957</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="54">
+      <c r="B28" s="35">
         <v>8500</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="35">
         <v>0.2365279206079513</v>
       </c>
-      <c r="D28" s="54">
+      <c r="D28" s="35">
         <v>0.19945283389893387</v>
       </c>
-      <c r="E28" s="54">
+      <c r="E28" s="35">
         <v>0.41326354632669648</v>
       </c>
-      <c r="F28" s="54">
+      <c r="F28" s="35">
         <v>0.4933615497700784</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="54">
+      <c r="B29" s="35">
         <v>9000</v>
       </c>
-      <c r="C29" s="54">
+      <c r="C29" s="35">
         <v>0.23290206388873688</v>
       </c>
-      <c r="D29" s="54">
+      <c r="D29" s="35">
         <v>0.19665768903521974</v>
       </c>
-      <c r="E29" s="54">
+      <c r="E29" s="35">
         <v>0.40883060835723273</v>
       </c>
-      <c r="F29" s="54">
+      <c r="F29" s="35">
         <v>0.48973625580210661</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="54">
+      <c r="B30" s="35">
         <v>9500</v>
       </c>
-      <c r="C30" s="54">
+      <c r="C30" s="35">
         <v>0.22952346678056862</v>
       </c>
-      <c r="D30" s="54">
+      <c r="D30" s="35">
         <v>0.19404976892995565</v>
       </c>
-      <c r="E30" s="54">
+      <c r="E30" s="35">
         <v>0.40468118001516468</v>
       </c>
-      <c r="F30" s="54">
+      <c r="F30" s="35">
         <v>0.48633154228123227</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="54">
+      <c r="B31" s="35">
         <v>10000</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="35">
         <v>0.2263635247308225</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31" s="35">
         <v>0.19160762401948125</v>
       </c>
-      <c r="E31" s="54">
+      <c r="E31" s="35">
         <v>0.4007835745150265</v>
       </c>
-      <c r="F31" s="54">
+      <c r="F31" s="35">
         <v>0.48312339029846091</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="54">
+      <c r="B32" s="35">
         <v>10500</v>
       </c>
-      <c r="C32" s="54">
+      <c r="C32" s="35">
         <v>0.22339816947047966</v>
       </c>
-      <c r="D32" s="54">
+      <c r="D32" s="35">
         <v>0.18931318402045641</v>
       </c>
-      <c r="E32" s="54">
+      <c r="E32" s="35">
         <v>0.39711101479026101</v>
       </c>
-      <c r="F32" s="54">
+      <c r="F32" s="35">
         <v>0.48009143840118934</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="54">
+      <c r="B33" s="35">
         <v>11000</v>
       </c>
-      <c r="C33" s="54">
+      <c r="C33" s="35">
         <v>0.22060697297367762</v>
       </c>
-      <c r="D33" s="54">
+      <c r="D33" s="35">
         <v>0.18715109370753652</v>
       </c>
-      <c r="E33" s="54">
+      <c r="E33" s="35">
         <v>0.39364068035138799</v>
       </c>
-      <c r="F33" s="54">
+      <c r="F33" s="35">
         <v>0.47721828166389163</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="54">
+      <c r="B34" s="35">
         <v>11500</v>
       </c>
-      <c r="C34" s="54">
+      <c r="C34" s="35">
         <v>0.21797246022462102</v>
       </c>
-      <c r="D34" s="54">
+      <c r="D34" s="35">
         <v>0.1851082028743618</v>
       </c>
-      <c r="E34" s="54">
+      <c r="E34" s="35">
         <v>0.3903529732327205</v>
       </c>
-      <c r="F34" s="54">
+      <c r="F34" s="35">
         <v>0.47448893024193778</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="54">
+      <c r="B35" s="35">
         <v>12000</v>
       </c>
-      <c r="C35" s="54">
+      <c r="C35" s="35">
         <v>0.21547957534538925</v>
       </c>
-      <c r="D35" s="54">
+      <c r="D35" s="35">
         <v>0.18317316966744931</v>
       </c>
-      <c r="E35" s="54">
+      <c r="E35" s="35">
         <v>0.38723094550348752</v>
       </c>
-      <c r="F35" s="54">
+      <c r="F35" s="35">
         <v>0.47189038588278981</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="54">
+      <c r="B36" s="35">
         <v>12500</v>
       </c>
-      <c r="C36" s="54">
+      <c r="C36" s="35">
         <v>0.21311526201751829</v>
       </c>
-      <c r="D36" s="54">
+      <c r="D36" s="35">
         <v>0.18133614850562368</v>
       </c>
-      <c r="E36" s="54">
+      <c r="E36" s="35">
         <v>0.38425984765118115</v>
       </c>
-      <c r="F36" s="54">
+      <c r="F36" s="35">
         <v>0.46941130693423583</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="54">
+      <c r="B37" s="35">
         <v>13000</v>
       </c>
-      <c r="C37" s="54">
+      <c r="C37" s="35">
         <v>0.21086813021987486</v>
       </c>
-      <c r="D37" s="54">
+      <c r="D37" s="35">
         <v>0.17958854194691906</v>
       </c>
-      <c r="E37" s="54">
+      <c r="E37" s="35">
         <v>0.38142676858551555</v>
       </c>
-      <c r="F37" s="54">
+      <c r="F37" s="35">
         <v>0.46704174061346776</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="54">
+      <c r="B38" s="35">
         <v>13500</v>
       </c>
-      <c r="C38" s="54">
+      <c r="C38" s="35">
         <v>0.20872818894834735</v>
       </c>
-      <c r="D38" s="54">
+      <c r="D38" s="35">
         <v>0.17792280148736414</v>
       </c>
-      <c r="E38" s="54">
+      <c r="E38" s="35">
         <v>0.37872034592557091</v>
       </c>
-      <c r="F38" s="54">
+      <c r="F38" s="35">
         <v>0.46477290700545548</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="54">
+      <c r="B39" s="35">
         <v>14000</v>
       </c>
-      <c r="C39" s="54">
+      <c r="C39" s="35">
         <v>0.20668662993657647</v>
       </c>
-      <c r="D39" s="54">
+      <c r="D39" s="35">
         <v>0.17633226621845297</v>
       </c>
-      <c r="E39" s="54">
+      <c r="E39" s="35">
         <v>0.37613053079606029</v>
       </c>
-      <c r="F39" s="54">
+      <c r="F39" s="35">
         <v>0.4625970232796196</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="54">
+      <c r="B40" s="35">
         <v>14500</v>
       </c>
-      <c r="C40" s="54">
+      <c r="C40" s="35">
         <v>0.20473565120316389</v>
       </c>
-      <c r="D40" s="54">
+      <c r="D40" s="35">
         <v>0.17481103107566925</v>
       </c>
-      <c r="E40" s="54">
+      <c r="E40" s="35">
         <v>0.37364839532738492</v>
       </c>
-      <c r="F40" s="54">
+      <c r="F40" s="35">
         <v>0.46050715948907417</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="54">
+      <c r="B41" s="35">
         <v>15000</v>
       </c>
-      <c r="C41" s="54">
+      <c r="C41" s="35">
         <v>0.20286831199400959</v>
       </c>
-      <c r="D41" s="54">
+      <c r="D41" s="35">
         <v>0.17335383843434768</v>
       </c>
-      <c r="E41" s="54">
+      <c r="E41" s="35">
         <v>0.37126597392382438</v>
       </c>
-      <c r="F41" s="54">
+      <c r="F41" s="35">
         <v>0.45849711940069332</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="54">
+      <c r="B42" s="35">
         <v>15500</v>
       </c>
-      <c r="C42" s="54">
+      <c r="C42" s="35">
         <v>0.20107841269056492</v>
       </c>
-      <c r="D42" s="54">
+      <c r="D42" s="35">
         <v>0.17195598828763806</v>
       </c>
-      <c r="E42" s="54">
+      <c r="E42" s="35">
         <v>0.36897613146521524</v>
       </c>
-      <c r="F42" s="54">
+      <c r="F42" s="35">
         <v>0.45656134133352383</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="54">
+      <c r="B43" s="35">
         <v>16000</v>
       </c>
-      <c r="C43" s="54">
+      <c r="C43" s="35">
         <v>0.19936039473317305</v>
       </c>
-      <c r="D43" s="54">
+      <c r="D43" s="35">
         <v>0.17061326333399154</v>
       </c>
-      <c r="E43" s="54">
+      <c r="E43" s="35">
         <v>0.36677245316354051</v>
       </c>
-      <c r="F43" s="54">
+      <c r="F43" s="35">
         <v>0.45469481511817939</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="54">
+      <c r="B44" s="35">
         <v>16500</v>
       </c>
-      <c r="C44" s="54">
+      <c r="C44" s="35">
         <v>0.19770925671217107</v>
       </c>
-      <c r="D44" s="54">
+      <c r="D44" s="35">
         <v>0.16932186611785943</v>
       </c>
-      <c r="E44" s="54">
+      <c r="E44" s="35">
         <v>0.36464915196073122</v>
       </c>
-      <c r="F44" s="54">
+      <c r="F44" s="35">
         <v>0.45289301214141625</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="54">
+      <c r="B45" s="35">
         <v>17000</v>
       </c>
-      <c r="C45" s="54">
+      <c r="C45" s="35">
         <v>0.1961204836114542</v>
       </c>
-      <c r="D45" s="54">
+      <c r="D45" s="35">
         <v>0.16807836598323717</v>
       </c>
-      <c r="E45" s="54">
+      <c r="E45" s="35">
         <v>0.36260099023473352</v>
       </c>
-      <c r="F45" s="54">
+      <c r="F45" s="35">
         <v>0.45115182608526072</v>
       </c>
     </row>
@@ -27902,771 +28185,771 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="6" width="15" style="54" customWidth="1"/>
+    <col min="2" max="6" width="15" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="36" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="54">
+      <c r="B3" s="35">
         <v>10</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="35">
         <v>0.62963043705842447</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="35">
         <v>0.41135628136580166</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="35">
         <v>0.71563140131774527</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="35">
         <v>0.5619183536817044</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="54">
+      <c r="B4" s="35">
         <v>100</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="35">
         <v>0.33792120399031378</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="35">
         <v>0.2329724426048308</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="35">
         <v>0.46345774427135283</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="35">
         <v>0.41748508005563029</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="54">
+      <c r="B5" s="35">
         <v>200</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="35">
         <v>0.28019216411661685</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="35">
         <v>0.196325249968548</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="35">
         <v>0.40664181125692617</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="35">
         <v>0.38176699485037968</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="54">
+      <c r="B6" s="35">
         <v>300</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="35">
         <v>0.25110985277278958</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="35">
         <v>0.17762203272334451</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="35">
         <v>0.3766927531327518</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="35">
         <v>0.36230716818124642</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="54">
+      <c r="B7" s="35">
         <v>400</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="35">
         <v>0.23232531106453885</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="35">
         <v>0.16544275942794975</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="35">
         <v>0.35679102292764209</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="35">
         <v>0.34910478318810595</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="54">
+      <c r="B8" s="35">
         <v>500</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="35">
         <v>0.21872812591912644</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="35">
         <v>0.15657389911456041</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="35">
         <v>0.34208104531076428</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="35">
         <v>0.33919643681934947</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="54">
+      <c r="B9" s="35">
         <v>600</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="35">
         <v>0.20821129970118632</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="35">
         <v>0.14968160862476676</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="35">
         <v>0.33051346172257406</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="35">
         <v>0.33130984894328369</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="54">
+      <c r="B10" s="35">
         <v>700</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="35">
         <v>0.19971494644433616</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="35">
         <v>0.14409150263625614</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="35">
         <v>0.3210389180836673</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="35">
         <v>0.32478506553522279</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="54">
+      <c r="B11" s="35">
         <v>800</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="35">
         <v>0.19263583023960001</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="35">
         <v>0.13941816781855332</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="35">
         <v>0.31305151245581608</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="35">
         <v>0.31923699871587585</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="54">
+      <c r="B12" s="35">
         <v>900</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="35">
         <v>0.18660018198023315</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="35">
         <v>0.13542196731948877</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="35">
         <v>0.30617123570957494</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="35">
         <v>0.31442197670398808</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="54">
+      <c r="B13" s="35">
         <v>1000</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="35">
         <v>0.1813615311225294</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="35">
         <v>0.13194440311705297</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="35">
         <v>0.30014485156684889</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="35">
         <v>0.310176364461275</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="54">
+      <c r="B14" s="35">
         <v>1500</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="35">
         <v>0.16253726267616633</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="35">
         <v>0.11937452310323766</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="35">
         <v>0.27803926538164542</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="35">
         <v>0.29436573030301333</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="54">
+      <c r="B15" s="35">
         <v>2000</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="35">
         <v>0.15037848851349755</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="35">
         <v>0.11118919316927466</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="35">
         <v>0.26334967446163549</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="35">
         <v>0.28363911476361781</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="54">
+      <c r="B16" s="35">
         <v>2500</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="35">
         <v>0.14157736331178727</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="35">
         <v>0.10522869404567159</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="35">
         <v>0.25249214843714146</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="35">
         <v>0.27558882519972189</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="54">
+      <c r="B17" s="35">
         <v>3000</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="35">
         <v>0.13477007906296246</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="35">
         <v>0.10059658913338525</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="35">
         <v>0.24395404300146892</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="35">
         <v>0.26918116506042356</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="54">
+      <c r="B18" s="35">
         <v>3500</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="35">
         <v>0.12927059751793646</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="35">
         <v>9.6839643971551703E-2</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="35">
         <v>0.23696082337810229</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="35">
         <v>0.2638799378100094</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="54">
+      <c r="B19" s="35">
         <v>4000</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="35">
         <v>0.12468845883488995</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="35">
         <v>9.3698833641822243E-2</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="35">
         <v>0.23106526957568996</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="35">
         <v>0.25937226894647203</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="54">
+      <c r="B20" s="35">
         <v>4500</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="35">
         <v>0.12078173141770134</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="35">
         <v>9.1013105292210461E-2</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="35">
         <v>0.22598689449085482</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20" s="35">
         <v>0.25546018109552071</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="54">
+      <c r="B21" s="35">
         <v>5000</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="35">
         <v>0.11739088091492259</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21" s="35">
         <v>8.8675937082491441E-2</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="35">
         <v>0.22153878285075471</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="35">
         <v>0.25201072478284725</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="54">
+      <c r="B22" s="35">
         <v>5500</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="35">
         <v>0.11440556478412296</v>
       </c>
-      <c r="D22" s="54">
+      <c r="D22" s="35">
         <v>8.6613456512782794E-2</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="35">
         <v>0.21759044719114332</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="35">
         <v>0.24893045432440411</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="54">
+      <c r="B23" s="35">
         <v>6000</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C23" s="35">
         <v>0.11174652452972855</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D23" s="35">
         <v>8.4772474747559085E-2</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="35">
         <v>0.214047375700955</v>
       </c>
-      <c r="F23" s="54">
+      <c r="F23" s="35">
         <v>0.24615127429643346</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="54">
+      <c r="B24" s="35">
         <v>6500</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="35">
         <v>0.10935505441006732</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="35">
         <v>8.3113510372646873E-2</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="35">
         <v>0.21083903491150544</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="35">
         <v>0.24362208479107353</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="54">
+      <c r="B25" s="35">
         <v>7000</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="35">
         <v>0.10718655132466028</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="35">
         <v>8.1606507177453838E-2</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="35">
         <v>0.20791146465121252</v>
       </c>
-      <c r="F25" s="54">
+      <c r="F25" s="35">
         <v>0.24130359543773056</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="54">
+      <c r="B26" s="35">
         <v>7500</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="35">
         <v>0.10520639260684478</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D26" s="35">
         <v>8.0228091907499799E-2</v>
       </c>
-      <c r="E26" s="54">
+      <c r="E26" s="35">
         <v>0.20522251211644987</v>
       </c>
-      <c r="F26" s="54">
+      <c r="F26" s="35">
         <v>0.23916497046362215</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="54">
+      <c r="B27" s="35">
         <v>8000</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="35">
         <v>0.1033872059780982</v>
       </c>
-      <c r="D27" s="54">
+      <c r="D27" s="35">
         <v>7.8959754771059362E-2</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="35">
         <v>0.20273865503435137</v>
       </c>
-      <c r="F27" s="54">
+      <c r="F27" s="35">
         <v>0.23718158179455084</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="54">
+      <c r="B28" s="35">
         <v>8500</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="35">
         <v>0.10170700586141906</v>
       </c>
-      <c r="D28" s="54">
+      <c r="D28" s="35">
         <v>7.7786605220584212E-2</v>
       </c>
-      <c r="E28" s="54">
+      <c r="E28" s="35">
         <v>0.20043281996844778</v>
       </c>
-      <c r="F28" s="54">
+      <c r="F28" s="35">
         <v>0.23533345924032739</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="54">
+      <c r="B29" s="35">
         <v>9000</v>
       </c>
-      <c r="C29" s="54">
+      <c r="C29" s="35">
         <v>0.10014788747215686</v>
       </c>
-      <c r="D29" s="54">
+      <c r="D29" s="35">
         <v>7.6696498723735698E-2</v>
       </c>
-      <c r="E29" s="54">
+      <c r="E29" s="35">
         <v>0.19828284505325786</v>
       </c>
-      <c r="F29" s="54">
+      <c r="F29" s="35">
         <v>0.23360419401760485</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="54">
+      <c r="B30" s="35">
         <v>9500</v>
       </c>
-      <c r="C30" s="54">
+      <c r="C30" s="35">
         <v>9.8695090715644501E-2</v>
       </c>
-      <c r="D30" s="54">
+      <c r="D30" s="35">
         <v>7.5679409882682708E-2</v>
       </c>
-      <c r="E30" s="54">
+      <c r="E30" s="35">
         <v>0.19627037230735486</v>
       </c>
-      <c r="F30" s="54">
+      <c r="F30" s="35">
         <v>0.23198014566814779</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="54">
+      <c r="B31" s="35">
         <v>10000</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="35">
         <v>9.733631563425367E-2</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31" s="35">
         <v>7.472697336759769E-2</v>
       </c>
-      <c r="E31" s="54">
+      <c r="E31" s="35">
         <v>0.19438003363978784</v>
       </c>
-      <c r="F31" s="54">
+      <c r="F31" s="35">
         <v>0.23044985717236585</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="54">
+      <c r="B32" s="35">
         <v>10500</v>
       </c>
-      <c r="C32" s="54">
+      <c r="C32" s="35">
         <v>9.6061212872306248E-2</v>
       </c>
-      <c r="D32" s="54">
+      <c r="D32" s="35">
         <v>7.3832141767978005E-2</v>
       </c>
-      <c r="E32" s="54">
+      <c r="E32" s="35">
         <v>0.19259884217327658</v>
       </c>
-      <c r="F32" s="54">
+      <c r="F32" s="35">
         <v>0.2290036161173673</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="54">
+      <c r="B33" s="35">
         <v>11000</v>
       </c>
-      <c r="C33" s="54">
+      <c r="C33" s="35">
         <v>9.486099837868138E-2</v>
       </c>
-      <c r="D33" s="54">
+      <c r="D33" s="35">
         <v>7.2988926545939248E-2</v>
       </c>
-      <c r="E33" s="54">
+      <c r="E33" s="35">
         <v>0.19091572997042316</v>
       </c>
-      <c r="F33" s="54">
+      <c r="F33" s="35">
         <v>0.2276331203536763</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="54">
+      <c r="B34" s="35">
         <v>11500</v>
       </c>
-      <c r="C34" s="54">
+      <c r="C34" s="35">
         <v>9.3728157896587033E-2</v>
       </c>
-      <c r="D34" s="54">
+      <c r="D34" s="35">
         <v>7.219219912100111E-2</v>
       </c>
-      <c r="E34" s="54">
+      <c r="E34" s="35">
         <v>0.18932119201786943</v>
       </c>
-      <c r="F34" s="54">
+      <c r="F34" s="35">
         <v>0.22633121972540432</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="54">
+      <c r="B35" s="35">
         <v>12000</v>
       </c>
-      <c r="C35" s="54">
+      <c r="C35" s="35">
         <v>9.2656217398517371E-2</v>
       </c>
-      <c r="D35" s="54">
+      <c r="D35" s="35">
         <v>7.1437536170305238E-2</v>
       </c>
-      <c r="E35" s="54">
+      <c r="E35" s="35">
         <v>0.18780700856919144</v>
       </c>
-      <c r="F35" s="54">
+      <c r="F35" s="35">
         <v>0.22509171406609074</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="54">
+      <c r="B36" s="35">
         <v>12500</v>
       </c>
-      <c r="C36" s="54">
+      <c r="C36" s="35">
         <v>9.163956266753287E-2</v>
       </c>
-      <c r="D36" s="54">
+      <c r="D36" s="35">
         <v>7.0721097917193235E-2</v>
       </c>
-      <c r="E36" s="54">
+      <c r="E36" s="35">
         <v>0.18636602611082284</v>
       </c>
-      <c r="F36" s="54">
+      <c r="F36" s="35">
         <v>0.22390919340763049</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="54">
+      <c r="B37" s="35">
         <v>13000</v>
       </c>
-      <c r="C37" s="54">
+      <c r="C37" s="35">
         <v>9.0673295994546182E-2</v>
       </c>
-      <c r="D37" s="54">
+      <c r="D37" s="35">
         <v>7.003953135929844E-2</v>
       </c>
-      <c r="E37" s="54">
+      <c r="E37" s="35">
         <v>0.18499198276397505</v>
       </c>
-      <c r="F37" s="54">
+      <c r="F37" s="35">
         <v>0.22277891027262411</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="54">
+      <c r="B38" s="35">
         <v>13500</v>
       </c>
-      <c r="C38" s="54">
+      <c r="C38" s="35">
         <v>8.9753121247789364E-2</v>
       </c>
-      <c r="D38" s="54">
+      <c r="D38" s="35">
         <v>6.9389892580072013E-2</v>
       </c>
-      <c r="E38" s="54">
+      <c r="E38" s="35">
         <v>0.1836793677739019</v>
       </c>
-      <c r="F38" s="54">
+      <c r="F38" s="35">
         <v>0.22169667664160225</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="54">
+      <c r="B39" s="35">
         <v>14000</v>
       </c>
-      <c r="C39" s="54">
+      <c r="C39" s="35">
         <v>8.8875250872727879E-2</v>
       </c>
-      <c r="D39" s="54">
+      <c r="D39" s="35">
         <v>6.8769583825196656E-2</v>
       </c>
-      <c r="E39" s="54">
+      <c r="E39" s="35">
         <v>0.18242330743608923</v>
       </c>
-      <c r="F39" s="54">
+      <c r="F39" s="35">
         <v>0.22065878010437853</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="54">
+      <c r="B40" s="35">
         <v>14500</v>
       </c>
-      <c r="C40" s="54">
+      <c r="C40" s="35">
         <v>8.803633001736047E-2</v>
       </c>
-      <c r="D40" s="54">
+      <c r="D40" s="35">
         <v>6.8176302119511006E-2</v>
       </c>
-      <c r="E40" s="54">
+      <c r="E40" s="35">
         <v>0.18121947173378167</v>
       </c>
-      <c r="F40" s="54">
+      <c r="F40" s="35">
         <v>0.21966191507628838</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="54">
+      <c r="B41" s="35">
         <v>15000</v>
       </c>
-      <c r="C41" s="54">
+      <c r="C41" s="35">
         <v>8.7233374157424118E-2</v>
       </c>
-      <c r="D41" s="54">
+      <c r="D41" s="35">
         <v>6.7607996989395597E-2</v>
       </c>
-      <c r="E41" s="54">
+      <c r="E41" s="35">
         <v>0.18006399735305481</v>
       </c>
-      <c r="F41" s="54">
+      <c r="F41" s="35">
         <v>0.21870312595413072</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="54">
+      <c r="B42" s="35">
         <v>15500</v>
       </c>
-      <c r="C42" s="54">
+      <c r="C42" s="35">
         <v>8.646371745694291E-2</v>
       </c>
-      <c r="D42" s="54">
+      <c r="D42" s="35">
         <v>6.7062835432178849E-2</v>
       </c>
-      <c r="E42" s="54">
+      <c r="E42" s="35">
         <v>0.17895342376062939</v>
       </c>
-      <c r="F42" s="54">
+      <c r="F42" s="35">
         <v>0.21777975981609085</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="54">
+      <c r="B43" s="35">
         <v>16000</v>
       </c>
-      <c r="C43" s="54">
+      <c r="C43" s="35">
         <v>8.5724969735264403E-2</v>
       </c>
-      <c r="D43" s="54">
+      <c r="D43" s="35">
         <v>6.6539172700256707E-2</v>
       </c>
-      <c r="E43" s="54">
+      <c r="E43" s="35">
         <v>0.17788463978431715</v>
       </c>
-      <c r="F43" s="54">
+      <c r="F43" s="35">
         <v>0.21688942681137155</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="54">
+      <c r="B44" s="35">
         <v>16500</v>
       </c>
-      <c r="C44" s="54">
+      <c r="C44" s="35">
         <v>8.5014980386233563E-2</v>
       </c>
-      <c r="D44" s="54">
+      <c r="D44" s="35">
         <v>6.6035527785965178E-2</v>
       </c>
-      <c r="E44" s="54">
+      <c r="E44" s="35">
         <v>0.17685483870095464</v>
       </c>
-      <c r="F44" s="54">
+      <c r="F44" s="35">
         <v>0.21602996679145553</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="54">
+      <c r="B45" s="35">
         <v>17000</v>
       </c>
-      <c r="C45" s="54">
+      <c r="C45" s="35">
         <v>8.4331807952925303E-2</v>
       </c>
-      <c r="D45" s="54">
+      <c r="D45" s="35">
         <v>6.5550562733462492E-2</v>
       </c>
-      <c r="E45" s="54">
+      <c r="E45" s="35">
         <v>0.17586148026384577</v>
       </c>
-      <c r="F45" s="54">
+      <c r="F45" s="35">
         <v>0.21519942104266934</v>
       </c>
     </row>
@@ -28674,4 +28957,190 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B2" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+    </row>
+    <row r="3" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="68"/>
+      <c r="C3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0.43</v>
+      </c>
+      <c r="D4" s="39">
+        <v>41</v>
+      </c>
+      <c r="E4" s="39">
+        <v>3.7</v>
+      </c>
+      <c r="F4" s="40">
+        <f>25.110985277279/100</f>
+        <v>0.25110985277278997</v>
+      </c>
+      <c r="G4" s="40">
+        <f>8.72333741574241/100</f>
+        <v>8.7233374157424104E-2</v>
+      </c>
+      <c r="H4" s="41">
+        <v>16.387647861536543</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="39">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="D5" s="39">
+        <v>12.1</v>
+      </c>
+      <c r="E5" s="39">
+        <v>4.05</v>
+      </c>
+      <c r="F5" s="40">
+        <f>17.7622032723344/100</f>
+        <v>0.17762203272334401</v>
+      </c>
+      <c r="G5" s="40">
+        <f>6.76079969893956/100</f>
+        <v>6.7607996989395597E-2</v>
+      </c>
+      <c r="H5" s="41">
+        <v>11.001403573394889</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="39">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D6" s="39">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="E6" s="39">
+        <v>5.3</v>
+      </c>
+      <c r="F6" s="40">
+        <f>37.6692753132752/100</f>
+        <v>0.37669275313275202</v>
+      </c>
+      <c r="G6" s="40">
+        <f>18.0063997353055/100</f>
+        <v>0.18006399735305501</v>
+      </c>
+      <c r="H6" s="41">
+        <f>19.6628755779697</f>
+        <v>19.6628755779697</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="43">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="D7" s="43">
+        <v>35.6</v>
+      </c>
+      <c r="E7" s="43">
+        <v>7.75</v>
+      </c>
+      <c r="F7" s="44">
+        <f>36.2307168181246/100</f>
+        <v>0.36230716818124598</v>
+      </c>
+      <c r="G7" s="44">
+        <f>21.8703125954131/100</f>
+        <v>0.21870312595413099</v>
+      </c>
+      <c r="H7" s="45">
+        <v>14.360404222711569</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/SMcalculation.xlsx
+++ b/Data/SMcalculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1020" windowWidth="27320" windowHeight="13160" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="1020" windowWidth="27320" windowHeight="13160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Fine Sand" sheetId="5" r:id="rId1"/>
@@ -565,6 +565,21 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -580,9 +595,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -593,18 +605,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -995,11 +995,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1130698096"/>
-        <c:axId val="1130701216"/>
+        <c:axId val="3121440"/>
+        <c:axId val="3122304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1130698096"/>
+        <c:axId val="3121440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,12 +1141,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1130701216"/>
+        <c:crossAx val="3122304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1130701216"/>
+        <c:axId val="3122304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,7 +1252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1130698096"/>
+        <c:crossAx val="3121440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2523,11 +2523,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1129819856"/>
-        <c:axId val="1129824400"/>
+        <c:axId val="1958688"/>
+        <c:axId val="1963232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1129819856"/>
+        <c:axId val="1958688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2540,7 +2540,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2572,7 +2572,31 @@
                     <a:ea typeface="Times" charset="0"/>
                     <a:cs typeface="Times" charset="0"/>
                   </a:rPr>
-                  <a:t> head (cm)</a:t>
+                  <a:t> head </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>𝜓𝑠</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times" charset="0"/>
+                    <a:ea typeface="Times" charset="0"/>
+                    <a:cs typeface="Times" charset="0"/>
+                  </a:rPr>
+                  <a:t> (cm)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1100" b="1">
                   <a:solidFill>
@@ -2599,7 +2623,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2646,12 +2670,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1129824400"/>
+        <c:crossAx val="1963232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1129824400"/>
+        <c:axId val="1963232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2696,7 +2720,7 @@
                     <a:ea typeface="Times" charset="0"/>
                     <a:cs typeface="Times" charset="0"/>
                   </a:rPr>
-                  <a:t> Water Content (cm3/cm3)</a:t>
+                  <a:t> Water Content ϴ (cm3/cm3)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1100" b="1">
                   <a:solidFill>
@@ -2770,7 +2794,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1129819856"/>
+        <c:crossAx val="1958688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2825,16 +2849,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3260,11 +3277,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1129462464"/>
-        <c:axId val="1129465856"/>
+        <c:axId val="1759968"/>
+        <c:axId val="1764000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1129462464"/>
+        <c:axId val="1759968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3398,12 +3415,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1129465856"/>
+        <c:crossAx val="1764000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1129465856"/>
+        <c:axId val="1764000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3545,7 +3562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1129462464"/>
+        <c:crossAx val="1759968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3930,11 +3947,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1064706944"/>
-        <c:axId val="1129406048"/>
+        <c:axId val="1803072"/>
+        <c:axId val="1807104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1064706944"/>
+        <c:axId val="1803072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4076,12 +4093,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1129406048"/>
+        <c:crossAx val="1807104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1129406048"/>
+        <c:axId val="1807104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,7 +4204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1064706944"/>
+        <c:crossAx val="1803072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4290,7 +4307,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4639,11 +4655,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1064334480"/>
-        <c:axId val="1064343104"/>
+        <c:axId val="1830896"/>
+        <c:axId val="1834928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1064334480"/>
+        <c:axId val="1830896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -4777,12 +4793,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1064343104"/>
+        <c:crossAx val="1834928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1064343104"/>
+        <c:axId val="1834928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4924,7 +4940,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1064334480"/>
+        <c:crossAx val="1830896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5309,11 +5325,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1109826448"/>
-        <c:axId val="1110392112"/>
+        <c:axId val="1850128"/>
+        <c:axId val="1854160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1109826448"/>
+        <c:axId val="1850128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5455,12 +5471,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1110392112"/>
+        <c:crossAx val="1854160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1110392112"/>
+        <c:axId val="1854160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5566,7 +5582,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1109826448"/>
+        <c:crossAx val="1850128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6017,11 +6033,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1130903888"/>
-        <c:axId val="1130907008"/>
+        <c:axId val="1879264"/>
+        <c:axId val="1883296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1130903888"/>
+        <c:axId val="1879264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -6155,12 +6171,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1130907008"/>
+        <c:crossAx val="1883296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1130907008"/>
+        <c:axId val="1883296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6302,7 +6318,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1130903888"/>
+        <c:crossAx val="1879264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6687,11 +6703,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1039959696"/>
-        <c:axId val="1064365056"/>
+        <c:axId val="1904032"/>
+        <c:axId val="1908064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1039959696"/>
+        <c:axId val="1904032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6833,12 +6849,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1064365056"/>
+        <c:crossAx val="1908064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1064365056"/>
+        <c:axId val="1908064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6944,7 +6960,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1039959696"/>
+        <c:crossAx val="1904032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7395,11 +7411,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1110420560"/>
-        <c:axId val="1110423952"/>
+        <c:axId val="3170144"/>
+        <c:axId val="3174176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1110420560"/>
+        <c:axId val="3170144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -7533,12 +7549,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1110423952"/>
+        <c:crossAx val="3174176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1110423952"/>
+        <c:axId val="3174176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7680,7 +7696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1110420560"/>
+        <c:crossAx val="3170144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8951,11 +8967,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1064616768"/>
-        <c:axId val="1129487648"/>
+        <c:axId val="3223696"/>
+        <c:axId val="3228240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1064616768"/>
+        <c:axId val="3223696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -9092,12 +9108,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1129487648"/>
+        <c:crossAx val="3228240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1129487648"/>
+        <c:axId val="3228240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9214,7 +9230,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1064616768"/>
+        <c:crossAx val="3223696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21484,8 +21500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V134"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54:G116"/>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21502,10 +21518,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="47"/>
+      <c r="C1" s="52"/>
       <c r="D1" s="24"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -21519,31 +21535,31 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="22"/>
       <c r="E2" s="12"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
     </row>
     <row r="3" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -21553,26 +21569,26 @@
         <v>41</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
     </row>
     <row r="4" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
@@ -21584,22 +21600,22 @@
       <c r="D4" s="23"/>
       <c r="E4" s="12"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
     </row>
     <row r="5" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
@@ -21611,24 +21627,24 @@
       <c r="D5" s="23"/>
       <c r="E5" s="12"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53" t="s">
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
     </row>
     <row r="6" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
@@ -21636,26 +21652,26 @@
       <c r="D6" s="23"/>
       <c r="E6" s="12"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56" t="s">
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
     </row>
     <row r="7" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="28" t="s">
@@ -21668,23 +21684,23 @@
       <c r="D7" s="2"/>
       <c r="E7" s="12"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="58" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="59" t="s">
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
     </row>
     <row r="8" spans="2:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
@@ -21697,16 +21713,16 @@
       <c r="D8" s="2"/>
       <c r="E8" s="12"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="60" t="s">
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
     </row>
     <row r="9" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="32" t="s">
@@ -23053,26 +23069,26 @@
       <c r="D2" s="22"/>
       <c r="E2" s="3"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
     </row>
     <row r="3" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -23082,26 +23098,26 @@
         <v>12.41</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
     </row>
     <row r="4" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
@@ -23113,22 +23129,22 @@
       <c r="D4" s="23"/>
       <c r="E4" s="3"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
     </row>
     <row r="5" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
@@ -23140,24 +23156,24 @@
       <c r="D5" s="23"/>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53" t="s">
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
     </row>
     <row r="6" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
@@ -23165,26 +23181,26 @@
       <c r="D6" s="23"/>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56" t="s">
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
     </row>
     <row r="7" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="28" t="s">
@@ -23197,23 +23213,23 @@
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="58" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="59" t="s">
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
     </row>
     <row r="8" spans="2:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
@@ -23226,16 +23242,16 @@
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="60" t="s">
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
     </row>
     <row r="9" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="32" t="s">
@@ -24518,26 +24534,26 @@
       <c r="D2" s="22"/>
       <c r="E2" s="12"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
     </row>
     <row r="3" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -24547,26 +24563,26 @@
         <v>78.599999999999994</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
     </row>
     <row r="4" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
@@ -24578,22 +24594,22 @@
       <c r="D4" s="23"/>
       <c r="E4" s="12"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
     </row>
     <row r="5" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
@@ -24605,24 +24621,24 @@
       <c r="D5" s="23"/>
       <c r="E5" s="12"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53" t="s">
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
     </row>
     <row r="6" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
@@ -24630,26 +24646,26 @@
       <c r="D6" s="23"/>
       <c r="E6" s="12"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56" t="s">
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
     </row>
     <row r="7" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="28" t="s">
@@ -24662,23 +24678,23 @@
       <c r="D7" s="2"/>
       <c r="E7" s="12"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="58" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="59" t="s">
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
     </row>
     <row r="8" spans="2:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
@@ -24691,16 +24707,16 @@
       <c r="D8" s="2"/>
       <c r="E8" s="12"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="60" t="s">
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
     </row>
     <row r="9" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="32" t="s">
@@ -25983,26 +25999,26 @@
       <c r="D2" s="22"/>
       <c r="E2" s="12"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
     </row>
     <row r="3" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -26012,26 +26028,26 @@
         <v>35.6</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
     </row>
     <row r="4" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
@@ -26043,22 +26059,22 @@
       <c r="D4" s="23"/>
       <c r="E4" s="12"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
     </row>
     <row r="5" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
@@ -26070,24 +26086,24 @@
       <c r="D5" s="23"/>
       <c r="E5" s="12"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53" t="s">
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
     </row>
     <row r="6" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
@@ -26095,26 +26111,26 @@
       <c r="D6" s="23"/>
       <c r="E6" s="12"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56" t="s">
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
     </row>
     <row r="7" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="28" t="s">
@@ -26127,23 +26143,23 @@
       <c r="D7" s="2"/>
       <c r="E7" s="12"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="58" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="59" t="s">
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
     </row>
     <row r="8" spans="2:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
@@ -26156,16 +26172,16 @@
       <c r="D8" s="2"/>
       <c r="E8" s="12"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="60" t="s">
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
     </row>
     <row r="9" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="32" t="s">
@@ -28179,8 +28195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28963,7 +28979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
